--- a/excel/Project_estimation.xlsx
+++ b/excel/Project_estimation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
   <si>
     <t>Features</t>
   </si>
@@ -23,13 +23,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Code and Unit Testing</t>
+    <t>Code_and_Unit_Testing</t>
   </si>
   <si>
     <t>Design</t>
   </si>
   <si>
-    <t>Testing and Debugging</t>
+    <t>Testing_and_Debugging</t>
   </si>
   <si>
     <t>BA</t>
@@ -44,66 +44,13 @@
     <t>Effort</t>
   </si>
   <si>
-    <t>Export plans</t>
-  </si>
-  <si>
-    <t>- User should be able to export lesson(s) in a suitable format and import these lessons in other instances of ABC LMS in other locations.
-Weeeee</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Sync with main online server</t>
-  </si>
-  <si>
-    <t>- All contents and lessons will be housed in a central server.</t>
-  </si>
-  <si>
-    <t>Manual Grading for Objective Assessment</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Assessment status</t>
-  </si>
-  <si>
-    <t>Rename assessments</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Add Academic Cooridnator role</t>
+    <t>sdfdf</t>
   </si>
   <si>
-    <t>Rename Local admin and Teacher</t>
-  </si>
-  <si>
-    <t>Media player</t>
-  </si>
-  <si>
-    <t>- User would like to play the video content that is stored locally in a server.
-- The media player will let the user play/pause/seek a video that's available in the resource library or lesson.</t>
-  </si>
-  <si>
-    <t>576.0</t>
-  </si>
-  <si>
-    <t>115.2</t>
-  </si>
-  <si>
-    <t>172.8</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>1008.0</t>
-  </si>
-  <si>
-    <t>588.0</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>Particulars</t>
@@ -143,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,18 +100,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF178AB4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB53434"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF49842"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,13 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -277,16 +206,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>576</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,259 +610,1203 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>70</v>
-      </c>
-      <c r="D7" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>122.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>122.5</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2">
-        <v>14</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
-        <v>70</v>
-      </c>
-      <c r="H9" s="2">
-        <v>70</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>28</v>
+      <c r="E53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -963,10 +1836,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -974,15 +1847,15 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>115.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>172.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -990,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Project_estimation.xlsx
+++ b/excel/Project_estimation.xlsx
@@ -71,34 +71,34 @@
     <t>Rename assessments</t>
   </si>
   <si>
+    <t>Add Academic Cooridnator role</t>
+  </si>
+  <si>
+    <t>Rename Local admin and Teacher</t>
+  </si>
+  <si>
+    <t>Media player</t>
+  </si>
+  <si>
+    <t>- User would like to play the video content that is stored locally in a server. The media player will let the user  a video thats available in the resource library or lesson.</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Add Academic Cooridnator role</t>
-  </si>
-  <si>
-    <t>Rename Local admin and Teacher</t>
-  </si>
-  <si>
-    <t>Media player</t>
-  </si>
-  <si>
-    <t>- User would like to play the video content that is stored locally in a server. The media player will let the user  a video thats available in the resource library or lesson.</t>
-  </si>
-  <si>
-    <t>1146.0</t>
-  </si>
-  <si>
-    <t>229.2</t>
-  </si>
-  <si>
-    <t>343.8</t>
-  </si>
-  <si>
-    <t>286.5</t>
-  </si>
-  <si>
-    <t>2005.5</t>
+    <t>579.0</t>
+  </si>
+  <si>
+    <t>115.8</t>
+  </si>
+  <si>
+    <t>173.7</t>
+  </si>
+  <si>
+    <t>144.75</t>
+  </si>
+  <si>
+    <t>1013.25</t>
   </si>
   <si>
     <t>Particulars</t>
@@ -272,16 +272,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1146</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>229.2</c:v>
+                  <c:v>115.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>343.8</c:v>
+                  <c:v>173.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286.5</c:v>
+                  <c:v>144.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,22 +683,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2">
-        <v>11.2</v>
+        <v>22.2</v>
       </c>
       <c r="E2" s="2">
-        <v>16.8</v>
+        <v>33.3</v>
       </c>
       <c r="F2" s="2">
-        <v>14</v>
+        <v>27.75</v>
       </c>
       <c r="G2" s="2">
-        <v>98</v>
+        <v>194.25</v>
       </c>
       <c r="H2" s="2">
-        <v>98</v>
+        <v>194.25</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>11</v>
@@ -712,22 +712,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>567</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2">
-        <v>113.4</v>
+        <v>44.4</v>
       </c>
       <c r="E3" s="2">
-        <v>170.1</v>
+        <v>66.6</v>
       </c>
       <c r="F3" s="2">
-        <v>141.75</v>
+        <v>55.5</v>
       </c>
       <c r="G3" s="2">
-        <v>992.25</v>
+        <v>388.5</v>
       </c>
       <c r="H3" s="2">
-        <v>992.25</v>
+        <v>388.5</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -741,22 +741,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="E4" s="2">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="F4" s="2">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="G4" s="2">
-        <v>42</v>
+        <v>57.75</v>
       </c>
       <c r="H4" s="2">
-        <v>42</v>
+        <v>57.75</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>15</v>
@@ -770,22 +770,22 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>8.8</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="F5" s="2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2">
-        <v>17.5</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2">
-        <v>17.5</v>
+        <v>77</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>15</v>
@@ -799,51 +799,51 @@
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>1.2</v>
+        <v>16.5</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>13.75</v>
       </c>
       <c r="G6" s="2">
-        <v>7</v>
+        <v>96.25</v>
       </c>
       <c r="H6" s="2">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
+        <v>96.25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2">
-        <v>14</v>
+        <v>13.2</v>
       </c>
       <c r="E7" s="2">
-        <v>21</v>
+        <v>19.8</v>
       </c>
       <c r="F7" s="2">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="G7" s="2">
-        <v>122.5</v>
+        <v>115.5</v>
       </c>
       <c r="H7" s="2">
-        <v>122.5</v>
+        <v>115.5</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>11</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -880,31 +880,31 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="2">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
-        <v>81.4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
-        <v>122.1</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
-        <v>101.75</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
-        <v>712.25</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
-        <v>712.25</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:9">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:9">
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:9">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:9">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="3:9">
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="3:9">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:9">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="3:9">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="3:9">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="3:9">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:9">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="3:9">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="3:9">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="3:9">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="3:9">
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1743,7 +1743,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1146</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>229.2</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>343.8</v>
+        <v>173.7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>286.5</v>
+        <v>144.75</v>
       </c>
     </row>
   </sheetData>
